--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H2">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>14.7254577601086</v>
+        <v>73.15142415085633</v>
       </c>
       <c r="R2">
-        <v>14.7254577601086</v>
+        <v>658.3628173577069</v>
       </c>
       <c r="S2">
-        <v>0.0007210019511758237</v>
+        <v>0.002502503370772032</v>
       </c>
       <c r="T2">
-        <v>0.0007210019511758237</v>
+        <v>0.002502503370772032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H3">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>42.80067064343584</v>
+        <v>83.89565777121221</v>
       </c>
       <c r="R3">
-        <v>42.80067064343584</v>
+        <v>755.0609199409099</v>
       </c>
       <c r="S3">
-        <v>0.002095647384840514</v>
+        <v>0.002870062596903489</v>
       </c>
       <c r="T3">
-        <v>0.002095647384840514</v>
+        <v>0.002870062596903489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H4">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>2.352074131915611</v>
+        <v>5.633541137052889</v>
       </c>
       <c r="R4">
-        <v>2.352074131915611</v>
+        <v>50.701870233476</v>
       </c>
       <c r="S4">
-        <v>0.0001151645039528354</v>
+        <v>0.0001927229148100287</v>
       </c>
       <c r="T4">
-        <v>0.0001151645039528354</v>
+        <v>0.0001927229148100287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H5">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>3.889945149855557</v>
+        <v>9.320114927659555</v>
       </c>
       <c r="R5">
-        <v>3.889945149855557</v>
+        <v>83.88103434893598</v>
       </c>
       <c r="S5">
-        <v>0.0001904632160645377</v>
+        <v>0.0003188402589996292</v>
       </c>
       <c r="T5">
-        <v>0.0001904632160645377</v>
+        <v>0.0003188402589996292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H6">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>4556.395268447117</v>
+        <v>11946.8401942585</v>
       </c>
       <c r="R6">
-        <v>4556.395268447117</v>
+        <v>107521.5617483265</v>
       </c>
       <c r="S6">
-        <v>0.2230945843855678</v>
+        <v>0.4087002844203233</v>
       </c>
       <c r="T6">
-        <v>0.2230945843855678</v>
+        <v>0.4087002844203234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H7">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>13243.51177281678</v>
+        <v>13701.55165151546</v>
       </c>
       <c r="R7">
-        <v>13243.51177281678</v>
+        <v>123313.9648636392</v>
       </c>
       <c r="S7">
-        <v>0.6484414939200143</v>
+        <v>0.4687287990731914</v>
       </c>
       <c r="T7">
-        <v>0.6484414939200143</v>
+        <v>0.4687287990731915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H8">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>727.7858264433412</v>
+        <v>920.0506548356014</v>
       </c>
       <c r="R8">
-        <v>727.7858264433412</v>
+        <v>8280.455893520413</v>
       </c>
       <c r="S8">
-        <v>0.03563454593073977</v>
+        <v>0.03147484675430143</v>
       </c>
       <c r="T8">
-        <v>0.03563454593073977</v>
+        <v>0.03147484675430143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H9">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>1203.638485408277</v>
+        <v>1522.129267138381</v>
       </c>
       <c r="R9">
-        <v>1203.638485408277</v>
+        <v>13699.16340424543</v>
       </c>
       <c r="S9">
-        <v>0.05893369908272925</v>
+        <v>0.05207189970641153</v>
       </c>
       <c r="T9">
-        <v>0.05893369908272925</v>
+        <v>0.05207189970641154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H10">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>2.822736620802598</v>
+        <v>7.767659479094666</v>
       </c>
       <c r="R10">
-        <v>2.822736620802598</v>
+        <v>69.90893531185199</v>
       </c>
       <c r="S10">
-        <v>0.0001382095310318635</v>
+        <v>0.0002657309034661654</v>
       </c>
       <c r="T10">
-        <v>0.0001382095310318635</v>
+        <v>0.0002657309034661654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H11">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>8.204500151256827</v>
+        <v>8.908547016084443</v>
       </c>
       <c r="R11">
-        <v>8.204500151256827</v>
+        <v>80.17692314476</v>
       </c>
       <c r="S11">
-        <v>0.000401716585918541</v>
+        <v>0.0003047605592812162</v>
       </c>
       <c r="T11">
-        <v>0.000401716585918541</v>
+        <v>0.0003047605592812162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H12">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>0.4508712662900412</v>
+        <v>0.5982033804817778</v>
       </c>
       <c r="R12">
-        <v>0.4508712662900412</v>
+        <v>5.383830424336001</v>
       </c>
       <c r="S12">
-        <v>2.207599030332871E-05</v>
+        <v>2.04644816343654E-05</v>
       </c>
       <c r="T12">
-        <v>2.207599030332871E-05</v>
+        <v>2.04644816343654E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H13">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>0.7456671844291618</v>
+        <v>0.9896660236551109</v>
       </c>
       <c r="R13">
-        <v>0.7456671844291618</v>
+        <v>8.906994212895999</v>
       </c>
       <c r="S13">
-        <v>3.651007008811951E-05</v>
+        <v>3.385638200328156E-05</v>
       </c>
       <c r="T13">
-        <v>3.651007008811951E-05</v>
+        <v>3.385638200328156E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H14">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>142.3124926298903</v>
+        <v>404.2289385347873</v>
       </c>
       <c r="R14">
-        <v>142.3124926298903</v>
+        <v>3638.060446813086</v>
       </c>
       <c r="S14">
-        <v>0.006968040419144784</v>
+        <v>0.01382863413787773</v>
       </c>
       <c r="T14">
-        <v>0.006968040419144784</v>
+        <v>0.01382863413787773</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H15">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>413.6421580046965</v>
+        <v>463.6007170359089</v>
       </c>
       <c r="R15">
-        <v>413.6421580046965</v>
+        <v>4172.406453323179</v>
       </c>
       <c r="S15">
-        <v>0.02025314308516036</v>
+        <v>0.01585973712120971</v>
       </c>
       <c r="T15">
-        <v>0.02025314308516036</v>
+        <v>0.01585973712120971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H16">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>22.73134988509365</v>
+        <v>31.13049924122756</v>
       </c>
       <c r="R16">
-        <v>22.73134988509365</v>
+        <v>280.174493171048</v>
       </c>
       <c r="S16">
-        <v>0.001112994100897274</v>
+        <v>0.001064971464182713</v>
       </c>
       <c r="T16">
-        <v>0.001112994100897274</v>
+        <v>0.001064971464182713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H17">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>37.59392743424051</v>
+        <v>51.50221213001421</v>
       </c>
       <c r="R17">
-        <v>37.59392743424051</v>
+        <v>463.519909170128</v>
       </c>
       <c r="S17">
-        <v>0.00184070984237096</v>
+        <v>0.001761885854631964</v>
       </c>
       <c r="T17">
-        <v>0.00184070984237096</v>
+        <v>0.001761885854631964</v>
       </c>
     </row>
   </sheetData>
